--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/KeHoachQuanTrac.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/KeHoachQuanTrac.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -108,15 +108,125 @@
 3. Trước cửa vào bộ phận WLP1</t>
   </si>
   <si>
-    <t>2023-02-02,
-2023-03-03</t>
+    <t xml:space="preserve">
+2023-03-01</t>
+  </si>
+  <si>
+    <t>Quan trắc môi trường nước thải
+배수 환경 평가</t>
+  </si>
+  <si>
+    <t>1 mẫu trước và 1 mẫu sau hệ thống xử lý của hệ thống sinh hoạt, hệ 100m3 và 300m3</t>
+  </si>
+  <si>
+    <t>PHÂN TÍCH NƯỚC UỐNG
+생수 분석</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo tiêu chuẩn RBA của Samsung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quan trắc cây lọc nước tại công ty     </t>
+  </si>
+  <si>
+    <t>2 tháng/lần
+2개월/ 번</t>
+  </si>
+  <si>
+    <t>1. Phòng nghỉ WLP1
+2. Xưởng CSP - Bộ phận LFEM
+3. Phòng nghỉ CSP</t>
+  </si>
+  <si>
+    <t>1. Phòng Utility
+2. Phòng nghỉ tầng 3
+3. Trước cửa phòng sạch CSP tầng 1</t>
+  </si>
+  <si>
+    <t>1. Cây nước phòng bảo vệ
+2. Cây nước canteen
+3. Cây nước văn phòng</t>
+  </si>
+  <si>
+    <t>1. Phòng nghỉ SMT
+2. Xưởng SMT
+3. Phòng QC tầng 2 - NM1</t>
+  </si>
+  <si>
+    <t>QUAN TRẮC MÔI TRƯỜNG LAO ĐỘNG
+작업 환경 평가</t>
+  </si>
+  <si>
+    <t>ND 44/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quan trắc tại các nơi làm việc của cán bộ công nhân viên
+작업 구역 환경 평가 </t>
+  </si>
+  <si>
+    <t>1 năm / lần
+1년/ 번</t>
+  </si>
+  <si>
+    <t>Toàn công ty</t>
+  </si>
+  <si>
+    <t>PHÂN TÍCH NƯỚC SINH HOẠT 
+생수 분석</t>
+  </si>
+  <si>
+    <t>Phân tích nước cấp của Công ty
+생수 분석</t>
+  </si>
+  <si>
+    <t>6 tháng / lần</t>
+  </si>
+  <si>
+    <t>Nước dùng để nấu ăn ở nhà ăn</t>
+  </si>
+  <si>
+    <t>Bảo hiểm ô nhiễm môi trường</t>
+  </si>
+  <si>
+    <t>Luật Môi trường 2020</t>
+  </si>
+  <si>
+    <t>Mua bảo hiểm trách nhiệm về môi trường</t>
+  </si>
+  <si>
+    <t>Ms Ánh</t>
+  </si>
+  <si>
+    <t>Báo cáo công tác bảo vệ môi trường</t>
+  </si>
+  <si>
+    <t>Báo cáo công tác bảo vệ môi trường trong 1 năm</t>
+  </si>
+  <si>
+    <t>Xử lý rác thải</t>
+  </si>
+  <si>
+    <t>Cân rác hàng ngày tổng hợp dữ liệu</t>
+  </si>
+  <si>
+    <t>hàng ngày</t>
+  </si>
+  <si>
+    <t>Mr Thắng</t>
+  </si>
+  <si>
+    <t>Công ty VEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +246,19 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -170,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -193,11 +316,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -230,8 +384,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,11 +739,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,30 +907,36 @@
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="9">
-        <v>44928</v>
-      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="9"/>
       <c r="K2" s="5"/>
       <c r="L2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="O2" s="9">
+        <v>45078</v>
+      </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="R2" s="9">
+        <v>45170</v>
+      </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="U2" s="9">
+        <v>45261</v>
+      </c>
+      <c r="V2" s="10"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -782,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="2">
-        <v>0</v>
+        <v>29260000</v>
       </c>
       <c r="AK2" s="2">
         <v>0</v>
@@ -791,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="2">
-        <v>0</v>
+        <v>29260000</v>
       </c>
       <c r="AN2" s="2">
         <v>0</v>
@@ -800,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="2">
-        <v>0</v>
+        <v>29260000</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
@@ -809,7 +982,584 @@
         <v>0</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>29260000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="9">
+        <v>45078</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="9">
+        <v>45170</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9">
+        <v>45261</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>44958</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9">
+        <v>45017</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="9">
+        <v>45078</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="9">
+        <v>45139</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9">
+        <v>45200</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="9">
+        <v>45261</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>3027000</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>3027000</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>3027000</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>3027000</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>3027000</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>3027000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9">
+        <v>45229</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2">
+        <v>19398000</v>
+      </c>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+    </row>
+    <row r="6" spans="1:45" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="9">
+        <v>45078</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9">
+        <v>45229</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="9">
+        <v>45261</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2">
+        <v>1909000</v>
+      </c>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2">
+        <v>1909000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9">
+        <v>45195</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2">
+        <v>137000000</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+    </row>
+    <row r="8" spans="1:45" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9">
+        <v>45200</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+    </row>
+    <row r="9" spans="1:45" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="14">
+        <v>70000000</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>60000000</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>90000000</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>78000000</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>74000000</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>95000000</v>
+      </c>
+      <c r="AN9" s="14">
+        <v>82000000</v>
+      </c>
+      <c r="AO9" s="14">
+        <v>69000000</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>65000000</v>
+      </c>
+      <c r="AQ9" s="14">
+        <v>87000000</v>
+      </c>
+      <c r="AR9" s="14">
+        <v>93000000</v>
+      </c>
+      <c r="AS9" s="15">
+        <v>85000000</v>
       </c>
     </row>
   </sheetData>
